--- a/biology/Botanique/Jacques_Cartier_(rose)/Jacques_Cartier_(rose).xlsx
+++ b/biology/Botanique/Jacques_Cartier_(rose)/Jacques_Cartier_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Jacques Cartier' est un cultivar de rosier obtenu en 1868 par Moreau et Robert. Ce  rosier de Portland doit son nom à l'explorateur français Jacques Cartier (1491-1557).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce buisson très florifère et remontant est l'un des rosiers de Portland qui compte toujours parmi les plus prisés, grâce à ses fleurs très doubles au rose délicat (plus soutenu au cœur) très parfumées[1]. Elles s'épanouissent en coupe, puis en rosette et mesurent environ de 6 cm[2] à 9 cm[3], ressemblant à de petites pivoines[4]. Elles ne donnent pas de fruits à l'automne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce buisson très florifère et remontant est l'un des rosiers de Portland qui compte toujours parmi les plus prisés, grâce à ses fleurs très doubles au rose délicat (plus soutenu au cœur) très parfumées. Elles s'épanouissent en coupe, puis en rosette et mesurent environ de 6 cm à 9 cm, ressemblant à de petites pivoines. Elles ne donnent pas de fruits à l'automne.
 Le buisson au feuillage vert glauque s'élève de 100 cm à 120 cm, pour 100 cm d'envergure. Ses aiguillons sont redoutables.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la floraison, il faut égaliser la hauteur des branches du buisson et supprimer en hiver les branches trop grêles[2]. Il peut parfaitement être cultivé en pot.
-Le rosier 'Jacques Cartier' est très résistant aux maladies du rosier[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la floraison, il faut égaliser la hauteur des branches du buisson et supprimer en hiver les branches trop grêles. Il peut parfaitement être cultivé en pot.
+Le rosier 'Jacques Cartier' est très résistant aux maladies du rosier.
 </t>
         </is>
       </c>
